--- a/data/form-games-describe.xlsx
+++ b/data/form-games-describe.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.88</v>
+        <v>32.78571428571428</v>
       </c>
       <c r="C3" t="n">
-        <v>22.04</v>
+        <v>22.875</v>
       </c>
       <c r="D3" t="n">
-        <v>6.12</v>
+        <v>5.982142857142857</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2</v>
+        <v>3.035714285714286</v>
       </c>
       <c r="F3" t="n">
-        <v>2.87</v>
+        <v>2.721153846153846</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.58616754711532</v>
+        <v>19.15080277046492</v>
       </c>
       <c r="C4" t="n">
-        <v>3.083597157310182</v>
+        <v>4.884344191579682</v>
       </c>
       <c r="D4" t="n">
-        <v>1.82544375371009</v>
+        <v>1.843820849398153</v>
       </c>
       <c r="E4" t="n">
-        <v>1.772810520855837</v>
+        <v>1.828703323165309</v>
       </c>
       <c r="F4" t="n">
-        <v>1.864846658903753</v>
+        <v>1.744496841719477</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.25</v>
+        <v>17.75</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="7">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.5</v>
+        <v>32.5</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.75</v>
+        <v>49.25</v>
       </c>
       <c r="C8" t="n">
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -624,7 +624,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>

--- a/data/form-games-describe.xlsx
+++ b/data/form-games-describe.xlsx
@@ -479,7 +479,7 @@
         <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.78571428571428</v>
+        <v>33.19642857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>22.875</v>
+        <v>22.46428571428572</v>
       </c>
       <c r="D3" t="n">
-        <v>5.982142857142857</v>
+        <v>5.875</v>
       </c>
       <c r="E3" t="n">
-        <v>3.035714285714286</v>
+        <v>3.107142857142857</v>
       </c>
       <c r="F3" t="n">
-        <v>2.721153846153846</v>
+        <v>2.715686274509804</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.15080277046492</v>
+        <v>19.49024897724001</v>
       </c>
       <c r="C4" t="n">
-        <v>4.884344191579682</v>
+        <v>4.790005829240278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.843820849398153</v>
+        <v>1.737945495536193</v>
       </c>
       <c r="E4" t="n">
-        <v>1.828703323165309</v>
+        <v>1.75477086231245</v>
       </c>
       <c r="F4" t="n">
-        <v>1.744496841719477</v>
+        <v>1.750014005546196</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.75</v>
+        <v>16.25</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="C7" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.25</v>
+        <v>48.5</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>23.25</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
